--- a/Documents/Detail Design/K0002_Booking/K0002-1-BookRoomPage.xlsx
+++ b/Documents/Detail Design/K0002_Booking/K0002-1-BookRoomPage.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ChuyenNganh\ChuyenNhanh9\Final_Project\Documents\Detail Design\K0002\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ChuyenNganh\ChuyenNhanh9\Final_Project\Documents\Detail Design\K0002_Booking\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,8 +24,116 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>viet hung nguyen</author>
+  </authors>
+  <commentList>
+    <comment ref="Z34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>viet hung nguyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+them phan dien ma~ khuyen mai. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW37" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>viet hung nguyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+From To la ngay check in check out
+vd:
+from 10 June 2017 to 12 June 2017</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T49" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>viet hung nguyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Gia tien 900$ bao gom 2 night, moi night 300$</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L70" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>viet hung nguyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+thong tin phong: loai giuong, dich vu kem theo, dac diem cua phong. Data duoc lay trong DB </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="86">
   <si>
     <t>Bản thiết kế chi tiết</t>
   </si>
@@ -115,12 +223,6 @@
   </si>
   <si>
     <t>Room King Size Bed</t>
-  </si>
-  <si>
-    <t>3 night, 1 people</t>
-  </si>
-  <si>
-    <t>3 night, 2 people</t>
   </si>
   <si>
     <t>Room Twins Bed</t>
@@ -213,9 +315,6 @@
     <t>Bedding options: Double</t>
   </si>
   <si>
-    <t>Royal 3 day 2 night package with dinner</t>
-  </si>
-  <si>
     <t>Breakfast included: Free Breakfast</t>
   </si>
   <si>
@@ -287,12 +386,18 @@
   <si>
     <t>#3.1 xuất hiện khi người dùng ấn button Next ở #3</t>
   </si>
+  <si>
+    <t>2 night, 2 people</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,6 +480,39 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -566,7 +704,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -629,10 +767,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -641,71 +776,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -737,6 +863,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -746,59 +878,98 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2097,7 +2268,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr lang="en-US" sz="1100"/>
-              <a:t>4</a:t>
+              <a:t>2</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -2309,7 +2480,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr lang="en-US" sz="1100"/>
-              <a:t>4</a:t>
+              <a:t>0</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -2585,7 +2756,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr lang="en-US" sz="1100"/>
-              <a:t>4</a:t>
+              <a:t>2</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -2797,7 +2968,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr lang="en-US" sz="1100"/>
-              <a:t>4</a:t>
+              <a:t>0</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -3493,16 +3664,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>59531</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>297656</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>107157</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>107156</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3511,8 +3682,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2107406" y="7679531"/>
-          <a:ext cx="6750844" cy="130969"/>
+          <a:off x="2702719" y="7691438"/>
+          <a:ext cx="6191249" cy="226218"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3543,16 +3714,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>202406</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>416719</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3561,8 +3732,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2607469" y="4095750"/>
-          <a:ext cx="7774781" cy="1559719"/>
+          <a:off x="2726531" y="3857625"/>
+          <a:ext cx="7691438" cy="1762125"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3589,6 +3760,305 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1166812" y="10441780"/>
+          <a:ext cx="2083594" cy="535781"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>35719</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Rectangle 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1190625" y="7465219"/>
+          <a:ext cx="2083594" cy="535781"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>23814</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Rectangle 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3786188" y="5072062"/>
+          <a:ext cx="1012032" cy="250032"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>11111111</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>35719</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>59531</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="TextBox 66"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2762250" y="5060156"/>
+          <a:ext cx="916781" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Promo code</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>83343</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11834812" y="13727906"/>
+          <a:ext cx="928688" cy="404813"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3856,11 +4326,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CC88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CC92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BR61" sqref="BR61:CC62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AZ70" sqref="AZ70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="12" customHeight="1"/>
@@ -3874,248 +4344,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="12" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="77" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="52" t="s">
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="53"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="55" t="s">
+      <c r="T1" s="83"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="48" t="s">
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="61">
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="91"/>
+      <c r="AH1" s="92">
         <v>42982</v>
       </c>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="49" t="s">
+      <c r="AI1" s="93"/>
+      <c r="AJ1" s="93"/>
+      <c r="AK1" s="93"/>
+      <c r="AL1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="50" t="s">
+      <c r="AM1" s="94"/>
+      <c r="AN1" s="94"/>
+      <c r="AO1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="51"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="51"/>
+      <c r="AP1" s="96"/>
+      <c r="AQ1" s="96"/>
+      <c r="AR1" s="96"/>
     </row>
     <row r="2" spans="1:55" ht="12" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="62"/>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="62"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="51"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="91"/>
+      <c r="AF2" s="91"/>
+      <c r="AG2" s="91"/>
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="94"/>
+      <c r="AM2" s="94"/>
+      <c r="AN2" s="94"/>
+      <c r="AO2" s="96"/>
+      <c r="AP2" s="96"/>
+      <c r="AQ2" s="96"/>
+      <c r="AR2" s="96"/>
     </row>
     <row r="3" spans="1:55" ht="12" customHeight="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="52" t="s">
+      <c r="A3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="53"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="55" t="s">
+      <c r="T3" s="83"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="48" t="s">
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="74"/>
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="74"/>
+      <c r="AC3" s="74"/>
+      <c r="AD3" s="75"/>
+      <c r="AE3" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="61"/>
-      <c r="AI3" s="62"/>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="62"/>
-      <c r="AL3" s="48"/>
-      <c r="AM3" s="48"/>
-      <c r="AN3" s="48"/>
-      <c r="AO3" s="62"/>
-      <c r="AP3" s="62"/>
-      <c r="AQ3" s="62"/>
-      <c r="AR3" s="62"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="92"/>
+      <c r="AI3" s="93"/>
+      <c r="AJ3" s="93"/>
+      <c r="AK3" s="93"/>
+      <c r="AL3" s="91"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="91"/>
+      <c r="AO3" s="93"/>
+      <c r="AP3" s="93"/>
+      <c r="AQ3" s="93"/>
+      <c r="AR3" s="93"/>
     </row>
     <row r="4" spans="1:55" ht="12" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="62"/>
-      <c r="AI4" s="62"/>
-      <c r="AJ4" s="62"/>
-      <c r="AK4" s="62"/>
-      <c r="AL4" s="48"/>
-      <c r="AM4" s="48"/>
-      <c r="AN4" s="48"/>
-      <c r="AO4" s="62"/>
-      <c r="AP4" s="62"/>
-      <c r="AQ4" s="62"/>
-      <c r="AR4" s="62"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="80"/>
+      <c r="AD4" s="81"/>
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="91"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="93"/>
+      <c r="AK4" s="93"/>
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="91"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="93"/>
+      <c r="AQ4" s="93"/>
+      <c r="AR4" s="93"/>
     </row>
     <row r="6" spans="1:55" ht="12" customHeight="1">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="63" t="s">
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="65"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="88"/>
     </row>
     <row r="7" spans="1:55" ht="12" customHeight="1">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="63" t="s">
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="65"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="88"/>
     </row>
     <row r="9" spans="1:55" ht="12" customHeight="1">
       <c r="B9" s="5"/>
@@ -4239,21 +4709,21 @@
       <c r="AL11" s="5"/>
       <c r="AM11" s="5"/>
       <c r="AN11" s="5"/>
-      <c r="AZ11" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="BA11" s="67"/>
-      <c r="BB11" s="67"/>
-      <c r="BC11" s="67"/>
+      <c r="AZ11" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="BA11" s="90"/>
+      <c r="BB11" s="90"/>
+      <c r="BC11" s="90"/>
     </row>
     <row r="12" spans="1:55" ht="12" customHeight="1">
       <c r="B12" s="5"/>
       <c r="AM12" s="5"/>
       <c r="AN12" s="5"/>
-      <c r="AZ12" s="67"/>
-      <c r="BA12" s="67"/>
-      <c r="BB12" s="67"/>
-      <c r="BC12" s="67"/>
+      <c r="AZ12" s="90"/>
+      <c r="BA12" s="90"/>
+      <c r="BB12" s="90"/>
+      <c r="BC12" s="90"/>
     </row>
     <row r="13" spans="1:55" ht="12" customHeight="1">
       <c r="B13" s="5"/>
@@ -4305,10 +4775,10 @@
       <c r="AK13" s="3"/>
       <c r="AM13" s="5"/>
       <c r="AN13" s="5"/>
-      <c r="AZ13" s="67"/>
-      <c r="BA13" s="67"/>
-      <c r="BB13" s="67"/>
-      <c r="BC13" s="67"/>
+      <c r="AZ13" s="90"/>
+      <c r="BA13" s="90"/>
+      <c r="BB13" s="90"/>
+      <c r="BC13" s="90"/>
     </row>
     <row r="14" spans="1:55" ht="12" customHeight="1">
       <c r="B14" s="5"/>
@@ -4353,7 +4823,7 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
@@ -4392,7 +4862,7 @@
       <c r="AM15" s="5"/>
       <c r="AN15" s="5"/>
       <c r="AZ15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:55" ht="12" customHeight="1">
@@ -4436,7 +4906,7 @@
       <c r="AM16" s="5"/>
       <c r="AN16" s="5"/>
       <c r="AZ16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:63" ht="12" customHeight="1">
@@ -4480,7 +4950,7 @@
       <c r="AM17" s="5"/>
       <c r="AN17" s="5"/>
       <c r="BA17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:63" ht="12" customHeight="1">
@@ -4567,10 +5037,10 @@
       <c r="AM19" s="5"/>
       <c r="AN19" s="5"/>
       <c r="AZ19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BA19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:63" ht="12" customHeight="1">
@@ -4614,7 +5084,7 @@
       <c r="AM20" s="5"/>
       <c r="AN20" s="5"/>
       <c r="BA20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:63" ht="12" customHeight="1">
@@ -4785,7 +5255,7 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
@@ -4869,14 +5339,14 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="89"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
@@ -5070,7 +5540,7 @@
       <c r="AM31" s="5"/>
       <c r="AN31" s="5"/>
       <c r="AV31" s="41" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AW31" s="41"/>
       <c r="AX31" s="41"/>
@@ -5254,7 +5724,7 @@
     </row>
     <row r="36" spans="2:81" ht="12" customHeight="1">
       <c r="D36" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -5290,7 +5760,7 @@
       <c r="AJ36" s="2"/>
       <c r="AK36" s="3"/>
       <c r="AV36" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AW36" s="2"/>
       <c r="AX36" s="2"/>
@@ -5368,32 +5838,32 @@
       <c r="AJ37" s="2"/>
       <c r="AK37" s="3"/>
       <c r="AV37" s="4"/>
-      <c r="AW37" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX37" s="81"/>
-      <c r="AY37" s="81"/>
-      <c r="AZ37" s="81"/>
-      <c r="BA37" s="81"/>
-      <c r="BB37" s="81"/>
-      <c r="BC37" s="81"/>
-      <c r="BD37" s="81"/>
-      <c r="BE37" s="81"/>
-      <c r="BF37" s="81"/>
-      <c r="BG37" s="81"/>
-      <c r="BH37" s="81"/>
-      <c r="BI37" s="81"/>
-      <c r="BJ37" s="81"/>
-      <c r="BK37" s="81"/>
-      <c r="BL37" s="81"/>
-      <c r="BM37" s="81"/>
-      <c r="BN37" s="81"/>
-      <c r="BO37" s="81"/>
-      <c r="BP37" s="81"/>
-      <c r="BQ37" s="81"/>
-      <c r="BR37" s="81"/>
-      <c r="BS37" s="81"/>
-      <c r="BT37" s="81"/>
+      <c r="AW37" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX37" s="99"/>
+      <c r="AY37" s="99"/>
+      <c r="AZ37" s="99"/>
+      <c r="BA37" s="99"/>
+      <c r="BB37" s="99"/>
+      <c r="BC37" s="99"/>
+      <c r="BD37" s="99"/>
+      <c r="BE37" s="99"/>
+      <c r="BF37" s="99"/>
+      <c r="BG37" s="99"/>
+      <c r="BH37" s="99"/>
+      <c r="BI37" s="99"/>
+      <c r="BJ37" s="99"/>
+      <c r="BK37" s="97"/>
+      <c r="BL37" s="97"/>
+      <c r="BM37" s="97"/>
+      <c r="BN37" s="97"/>
+      <c r="BO37" s="97"/>
+      <c r="BP37" s="97"/>
+      <c r="BQ37" s="97"/>
+      <c r="BR37" s="97"/>
+      <c r="BS37" s="97"/>
+      <c r="BT37" s="97"/>
       <c r="BU37" s="5"/>
       <c r="BV37" s="5"/>
       <c r="BW37" s="5"/>
@@ -5429,7 +5899,7 @@
       <c r="Y38" s="5"/>
       <c r="Z38" s="4"/>
       <c r="AA38" s="5" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
@@ -5442,30 +5912,30 @@
       <c r="AJ38" s="5"/>
       <c r="AK38" s="6"/>
       <c r="AV38" s="7"/>
-      <c r="AW38" s="82"/>
-      <c r="AX38" s="82"/>
-      <c r="AY38" s="82"/>
-      <c r="AZ38" s="82"/>
-      <c r="BA38" s="82"/>
-      <c r="BB38" s="82"/>
-      <c r="BC38" s="82"/>
-      <c r="BD38" s="82"/>
-      <c r="BE38" s="82"/>
-      <c r="BF38" s="82"/>
-      <c r="BG38" s="82"/>
-      <c r="BH38" s="82"/>
-      <c r="BI38" s="82"/>
-      <c r="BJ38" s="82"/>
-      <c r="BK38" s="82"/>
-      <c r="BL38" s="82"/>
-      <c r="BM38" s="82"/>
-      <c r="BN38" s="82"/>
-      <c r="BO38" s="82"/>
-      <c r="BP38" s="82"/>
-      <c r="BQ38" s="82"/>
-      <c r="BR38" s="82"/>
-      <c r="BS38" s="82"/>
-      <c r="BT38" s="82"/>
+      <c r="AW38" s="100"/>
+      <c r="AX38" s="100"/>
+      <c r="AY38" s="100"/>
+      <c r="AZ38" s="100"/>
+      <c r="BA38" s="100"/>
+      <c r="BB38" s="100"/>
+      <c r="BC38" s="100"/>
+      <c r="BD38" s="100"/>
+      <c r="BE38" s="100"/>
+      <c r="BF38" s="100"/>
+      <c r="BG38" s="100"/>
+      <c r="BH38" s="100"/>
+      <c r="BI38" s="100"/>
+      <c r="BJ38" s="100"/>
+      <c r="BK38" s="98"/>
+      <c r="BL38" s="98"/>
+      <c r="BM38" s="98"/>
+      <c r="BN38" s="98"/>
+      <c r="BO38" s="98"/>
+      <c r="BP38" s="98"/>
+      <c r="BQ38" s="98"/>
+      <c r="BR38" s="98"/>
+      <c r="BS38" s="98"/>
+      <c r="BT38" s="98"/>
       <c r="BU38" s="8"/>
       <c r="BV38" s="8"/>
       <c r="BW38" s="8"/>
@@ -5514,16 +5984,16 @@
       <c r="AJ39" s="5"/>
       <c r="AK39" s="6"/>
       <c r="AV39" s="23"/>
-      <c r="AW39" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX39" s="83"/>
-      <c r="AY39" s="83"/>
-      <c r="AZ39" s="83"/>
-      <c r="BA39" s="83"/>
-      <c r="BB39" s="83"/>
-      <c r="BC39" s="83"/>
-      <c r="BD39" s="83"/>
+      <c r="AW39" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX39" s="50"/>
+      <c r="AY39" s="50"/>
+      <c r="AZ39" s="50"/>
+      <c r="BA39" s="50"/>
+      <c r="BB39" s="50"/>
+      <c r="BC39" s="50"/>
+      <c r="BD39" s="50"/>
       <c r="BE39" s="24"/>
       <c r="BF39" s="24"/>
       <c r="BG39" s="24"/>
@@ -5586,14 +6056,14 @@
       <c r="AJ40" s="5"/>
       <c r="AK40" s="6"/>
       <c r="AV40" s="26"/>
-      <c r="AW40" s="84"/>
-      <c r="AX40" s="84"/>
-      <c r="AY40" s="84"/>
-      <c r="AZ40" s="84"/>
-      <c r="BA40" s="84"/>
-      <c r="BB40" s="84"/>
-      <c r="BC40" s="84"/>
-      <c r="BD40" s="84"/>
+      <c r="AW40" s="53"/>
+      <c r="AX40" s="53"/>
+      <c r="AY40" s="53"/>
+      <c r="AZ40" s="53"/>
+      <c r="BA40" s="53"/>
+      <c r="BB40" s="53"/>
+      <c r="BC40" s="53"/>
+      <c r="BD40" s="53"/>
       <c r="BE40" s="22"/>
       <c r="BF40" s="22"/>
       <c r="BG40" s="22"/>
@@ -5656,7 +6126,7 @@
       <c r="AJ41" s="8"/>
       <c r="AK41" s="9"/>
       <c r="AV41" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AW41" s="22"/>
       <c r="AX41" s="22"/>
@@ -5666,7 +6136,7 @@
       <c r="BB41" s="22"/>
       <c r="BC41" s="22"/>
       <c r="BD41" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="BE41" s="22"/>
       <c r="BF41" s="22"/>
@@ -5736,7 +6206,7 @@
       <c r="AJ42" s="2"/>
       <c r="AK42" s="3"/>
       <c r="AV42" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AW42" s="22"/>
       <c r="AX42" s="22"/>
@@ -5746,7 +6216,7 @@
       <c r="BB42" s="22"/>
       <c r="BC42" s="22"/>
       <c r="BD42" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="BE42" s="22"/>
       <c r="BF42" s="22"/>
@@ -5799,7 +6269,7 @@
       <c r="Y43" s="5"/>
       <c r="Z43" s="4"/>
       <c r="AA43" s="5" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
@@ -5812,7 +6282,7 @@
       <c r="AJ43" s="5"/>
       <c r="AK43" s="6"/>
       <c r="AV43" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AW43" s="22"/>
       <c r="AX43" s="22"/>
@@ -5822,7 +6292,7 @@
       <c r="BB43" s="22"/>
       <c r="BC43" s="22"/>
       <c r="BD43" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="BE43" s="22"/>
       <c r="BF43" s="22"/>
@@ -5888,7 +6358,7 @@
       <c r="AJ44" s="5"/>
       <c r="AK44" s="6"/>
       <c r="AV44" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AW44" s="22"/>
       <c r="AX44" s="22"/>
@@ -5898,7 +6368,7 @@
       <c r="BB44" s="22"/>
       <c r="BC44" s="22"/>
       <c r="BD44" s="35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="BE44" s="22"/>
       <c r="BF44" s="22"/>
@@ -5962,7 +6432,7 @@
       <c r="AJ45" s="5"/>
       <c r="AK45" s="6"/>
       <c r="AV45" s="26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AW45" s="22"/>
       <c r="AX45" s="22"/>
@@ -5972,7 +6442,7 @@
       <c r="BB45" s="22"/>
       <c r="BC45" s="22"/>
       <c r="BD45" s="35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="BE45" s="22"/>
       <c r="BF45" s="22"/>
@@ -6127,20 +6597,20 @@
       <c r="BO47" s="5"/>
       <c r="BP47" s="5"/>
       <c r="BQ47" s="3"/>
-      <c r="BR47" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="BS47" s="83"/>
-      <c r="BT47" s="83"/>
-      <c r="BU47" s="83"/>
-      <c r="BV47" s="83"/>
-      <c r="BW47" s="83"/>
-      <c r="BX47" s="83"/>
-      <c r="BY47" s="83"/>
-      <c r="BZ47" s="83"/>
-      <c r="CA47" s="83"/>
-      <c r="CB47" s="83"/>
-      <c r="CC47" s="87"/>
+      <c r="BR47" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="BS47" s="50"/>
+      <c r="BT47" s="50"/>
+      <c r="BU47" s="50"/>
+      <c r="BV47" s="50"/>
+      <c r="BW47" s="50"/>
+      <c r="BX47" s="50"/>
+      <c r="BY47" s="50"/>
+      <c r="BZ47" s="50"/>
+      <c r="CA47" s="50"/>
+      <c r="CB47" s="50"/>
+      <c r="CC47" s="51"/>
     </row>
     <row r="48" spans="2:81" ht="12" customHeight="1">
       <c r="D48" s="4"/>
@@ -6201,18 +6671,18 @@
       <c r="BO48" s="5"/>
       <c r="BP48" s="5"/>
       <c r="BQ48" s="6"/>
-      <c r="BR48" s="88"/>
-      <c r="BS48" s="84"/>
-      <c r="BT48" s="84"/>
-      <c r="BU48" s="84"/>
-      <c r="BV48" s="84"/>
-      <c r="BW48" s="84"/>
-      <c r="BX48" s="84"/>
-      <c r="BY48" s="84"/>
-      <c r="BZ48" s="84"/>
-      <c r="CA48" s="84"/>
-      <c r="CB48" s="84"/>
-      <c r="CC48" s="89"/>
+      <c r="BR48" s="52"/>
+      <c r="BS48" s="53"/>
+      <c r="BT48" s="53"/>
+      <c r="BU48" s="53"/>
+      <c r="BV48" s="53"/>
+      <c r="BW48" s="53"/>
+      <c r="BX48" s="53"/>
+      <c r="BY48" s="53"/>
+      <c r="BZ48" s="53"/>
+      <c r="CA48" s="53"/>
+      <c r="CB48" s="53"/>
+      <c r="CC48" s="54"/>
     </row>
     <row r="49" spans="4:81" ht="12" customHeight="1">
       <c r="D49" s="4"/>
@@ -6253,7 +6723,7 @@
       <c r="AK49" s="6"/>
       <c r="AV49" s="4"/>
       <c r="AW49" s="36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AX49" s="5"/>
       <c r="AY49" s="5"/>
@@ -6278,7 +6748,7 @@
       <c r="BP49" s="5"/>
       <c r="BQ49" s="6"/>
       <c r="BR49" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="BS49" s="5"/>
       <c r="BT49" s="5"/>
@@ -6310,7 +6780,7 @@
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
       <c r="R50" s="5" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
@@ -6333,7 +6803,7 @@
       <c r="AK50" s="6"/>
       <c r="AV50" s="4"/>
       <c r="AW50" s="36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AX50" s="5"/>
       <c r="AY50" s="5"/>
@@ -6373,7 +6843,9 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="5"/>
+      <c r="H51" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
@@ -6405,7 +6877,7 @@
       <c r="AK51" s="9"/>
       <c r="AV51" s="4"/>
       <c r="AW51" s="36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AX51" s="5"/>
       <c r="AY51" s="5"/>
@@ -6445,7 +6917,9 @@
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="7"/>
-      <c r="H52" s="8"/>
+      <c r="H52" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
@@ -6474,15 +6948,13 @@
       <c r="AF52" s="5"/>
       <c r="AG52" s="5"/>
       <c r="AH52" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AI52" s="5"/>
       <c r="AJ52" s="5"/>
       <c r="AK52" s="6"/>
       <c r="AV52" s="4"/>
-      <c r="AW52" s="36" t="s">
-        <v>63</v>
-      </c>
+      <c r="AW52" s="36"/>
       <c r="AX52" s="5"/>
       <c r="AY52" s="5"/>
       <c r="AZ52" s="5"/>
@@ -6578,7 +7050,7 @@
       <c r="BP53" s="5"/>
       <c r="BQ53" s="6"/>
       <c r="BR53" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="BS53" s="5"/>
       <c r="BT53" s="5"/>
@@ -6653,7 +7125,7 @@
       <c r="BM54" s="5"/>
       <c r="BN54" s="5"/>
       <c r="BO54" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="BP54" s="5"/>
       <c r="BQ54" s="6"/>
@@ -6727,7 +7199,7 @@
       <c r="BM55" s="5"/>
       <c r="BN55" s="5"/>
       <c r="BO55" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="BP55" s="5"/>
       <c r="BQ55" s="6"/>
@@ -6750,7 +7222,7 @@
       <c r="F56" s="5"/>
       <c r="G56" s="32"/>
       <c r="H56" s="33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I56" s="33"/>
       <c r="J56" s="33"/>
@@ -6874,18 +7346,18 @@
       <c r="BP57" s="5"/>
       <c r="BQ57" s="6"/>
       <c r="BR57" s="5"/>
-      <c r="BS57" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="BT57" s="44"/>
-      <c r="BU57" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="BV57" s="44"/>
-      <c r="BW57" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="BX57" s="44"/>
+      <c r="BS57" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT57" s="43"/>
+      <c r="BU57" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV57" s="43"/>
+      <c r="BW57" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX57" s="43"/>
       <c r="BY57" s="5"/>
       <c r="BZ57" s="5"/>
       <c r="CA57" s="5"/>
@@ -6947,12 +7419,12 @@
       <c r="BP58" s="5"/>
       <c r="BQ58" s="6"/>
       <c r="BR58" s="5"/>
-      <c r="BS58" s="45"/>
-      <c r="BT58" s="47"/>
-      <c r="BU58" s="45"/>
-      <c r="BV58" s="47"/>
-      <c r="BW58" s="45"/>
-      <c r="BX58" s="47"/>
+      <c r="BS58" s="44"/>
+      <c r="BT58" s="45"/>
+      <c r="BU58" s="44"/>
+      <c r="BV58" s="45"/>
+      <c r="BW58" s="44"/>
+      <c r="BX58" s="45"/>
       <c r="BY58" s="5"/>
       <c r="BZ58" s="5"/>
       <c r="CA58" s="5"/>
@@ -6980,7 +7452,7 @@
       <c r="AK59" s="3"/>
       <c r="AV59" s="4"/>
       <c r="AW59" s="36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AX59" s="5"/>
       <c r="AY59" s="5"/>
@@ -7036,7 +7508,7 @@
       <c r="AK60" s="6"/>
       <c r="AV60" s="4"/>
       <c r="AW60" s="36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AX60" s="5"/>
       <c r="AY60" s="5"/>
@@ -7061,7 +7533,7 @@
       <c r="BP60" s="5"/>
       <c r="BQ60" s="6"/>
       <c r="BR60" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="BS60" s="5"/>
       <c r="BT60" s="5"/>
@@ -7098,7 +7570,7 @@
       <c r="AK61" s="6"/>
       <c r="AV61" s="4"/>
       <c r="AW61" s="36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AX61" s="5"/>
       <c r="AY61" s="5"/>
@@ -7153,9 +7625,7 @@
       <c r="V62" s="6"/>
       <c r="AK62" s="6"/>
       <c r="AV62" s="4"/>
-      <c r="AW62" s="36" t="s">
-        <v>63</v>
-      </c>
+      <c r="AW62" s="36"/>
       <c r="AX62" s="5"/>
       <c r="AY62" s="5"/>
       <c r="AZ62" s="5"/>
@@ -7289,7 +7759,7 @@
       <c r="BP64" s="5"/>
       <c r="BQ64" s="6"/>
       <c r="BR64" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="BS64" s="5"/>
       <c r="BT64" s="5"/>
@@ -7348,15 +7818,15 @@
       </c>
       <c r="BP65" s="5"/>
       <c r="BQ65" s="6"/>
-      <c r="BR65" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="BS65" s="43"/>
-      <c r="BT65" s="43"/>
-      <c r="BU65" s="43"/>
-      <c r="BV65" s="43"/>
-      <c r="BW65" s="43"/>
-      <c r="BX65" s="44"/>
+      <c r="BR65" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS65" s="48"/>
+      <c r="BT65" s="48"/>
+      <c r="BU65" s="48"/>
+      <c r="BV65" s="48"/>
+      <c r="BW65" s="48"/>
+      <c r="BX65" s="43"/>
       <c r="BY65" s="5"/>
       <c r="BZ65" s="5"/>
       <c r="CA65" s="5"/>
@@ -7404,13 +7874,13 @@
       <c r="BO66" s="5"/>
       <c r="BP66" s="5"/>
       <c r="BQ66" s="6"/>
-      <c r="BR66" s="45"/>
-      <c r="BS66" s="46"/>
-      <c r="BT66" s="46"/>
-      <c r="BU66" s="46"/>
-      <c r="BV66" s="46"/>
-      <c r="BW66" s="46"/>
-      <c r="BX66" s="47"/>
+      <c r="BR66" s="44"/>
+      <c r="BS66" s="49"/>
+      <c r="BT66" s="49"/>
+      <c r="BU66" s="49"/>
+      <c r="BV66" s="49"/>
+      <c r="BW66" s="49"/>
+      <c r="BX66" s="45"/>
       <c r="BY66" s="5"/>
       <c r="BZ66" s="5"/>
       <c r="CA66" s="5"/>
@@ -7458,20 +7928,20 @@
       <c r="BO67" s="8"/>
       <c r="BP67" s="8"/>
       <c r="BQ67" s="9"/>
-      <c r="BR67" s="93">
+      <c r="BR67" s="55">
         <v>1648172064</v>
       </c>
-      <c r="BS67" s="94"/>
-      <c r="BT67" s="94"/>
-      <c r="BU67" s="94"/>
-      <c r="BV67" s="94"/>
-      <c r="BW67" s="94"/>
-      <c r="BX67" s="94"/>
-      <c r="BY67" s="94"/>
-      <c r="BZ67" s="94"/>
-      <c r="CA67" s="94"/>
-      <c r="CB67" s="94"/>
-      <c r="CC67" s="95"/>
+      <c r="BS67" s="56"/>
+      <c r="BT67" s="56"/>
+      <c r="BU67" s="56"/>
+      <c r="BV67" s="56"/>
+      <c r="BW67" s="56"/>
+      <c r="BX67" s="56"/>
+      <c r="BY67" s="56"/>
+      <c r="BZ67" s="56"/>
+      <c r="CA67" s="56"/>
+      <c r="CB67" s="56"/>
+      <c r="CC67" s="57"/>
     </row>
     <row r="68" spans="4:81" ht="12" customHeight="1">
       <c r="D68" s="4"/>
@@ -7516,24 +7986,24 @@
       <c r="BO68" s="2"/>
       <c r="BP68" s="2"/>
       <c r="BQ68" s="3"/>
-      <c r="BR68" s="96"/>
-      <c r="BS68" s="97"/>
-      <c r="BT68" s="97"/>
-      <c r="BU68" s="97"/>
-      <c r="BV68" s="97"/>
-      <c r="BW68" s="97"/>
-      <c r="BX68" s="97"/>
-      <c r="BY68" s="97"/>
-      <c r="BZ68" s="97"/>
-      <c r="CA68" s="97"/>
-      <c r="CB68" s="97"/>
-      <c r="CC68" s="98"/>
+      <c r="BR68" s="58"/>
+      <c r="BS68" s="59"/>
+      <c r="BT68" s="59"/>
+      <c r="BU68" s="59"/>
+      <c r="BV68" s="59"/>
+      <c r="BW68" s="59"/>
+      <c r="BX68" s="59"/>
+      <c r="BY68" s="59"/>
+      <c r="BZ68" s="59"/>
+      <c r="CA68" s="59"/>
+      <c r="CB68" s="59"/>
+      <c r="CC68" s="60"/>
     </row>
     <row r="69" spans="4:81" ht="12" customHeight="1">
       <c r="D69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
@@ -7545,7 +8015,7 @@
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
       <c r="R69" s="5" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="S69" s="5"/>
       <c r="T69" s="5"/>
@@ -7574,7 +8044,7 @@
       <c r="BM69" s="5"/>
       <c r="BN69" s="5"/>
       <c r="BO69" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="BP69" s="5"/>
       <c r="BQ69" s="6"/>
@@ -7594,7 +8064,9 @@
     <row r="70" spans="4:81" ht="12" customHeight="1">
       <c r="D70" s="4"/>
       <c r="G70" s="4"/>
-      <c r="H70" s="5"/>
+      <c r="H70" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
@@ -7618,7 +8090,7 @@
       <c r="BA70" s="5"/>
       <c r="BB70" s="5"/>
       <c r="BC70" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="BD70" s="5"/>
       <c r="BE70" s="5"/>
@@ -7632,7 +8104,7 @@
       <c r="BM70" s="5"/>
       <c r="BN70" s="5"/>
       <c r="BO70" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BP70" s="5"/>
       <c r="BQ70" s="6"/>
@@ -7652,7 +8124,9 @@
     <row r="71" spans="4:81" ht="12" customHeight="1">
       <c r="D71" s="4"/>
       <c r="G71" s="7"/>
-      <c r="H71" s="8"/>
+      <c r="H71" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
@@ -7690,20 +8164,20 @@
       <c r="BO71" s="5"/>
       <c r="BP71" s="5"/>
       <c r="BQ71" s="6"/>
-      <c r="BR71" s="86" t="s">
-        <v>79</v>
-      </c>
-      <c r="BS71" s="83"/>
-      <c r="BT71" s="83"/>
-      <c r="BU71" s="83"/>
-      <c r="BV71" s="83"/>
-      <c r="BW71" s="83"/>
-      <c r="BX71" s="83"/>
-      <c r="BY71" s="83"/>
-      <c r="BZ71" s="83"/>
-      <c r="CA71" s="83"/>
-      <c r="CB71" s="83"/>
-      <c r="CC71" s="87"/>
+      <c r="BR71" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS71" s="50"/>
+      <c r="BT71" s="50"/>
+      <c r="BU71" s="50"/>
+      <c r="BV71" s="50"/>
+      <c r="BW71" s="50"/>
+      <c r="BX71" s="50"/>
+      <c r="BY71" s="50"/>
+      <c r="BZ71" s="50"/>
+      <c r="CA71" s="50"/>
+      <c r="CB71" s="50"/>
+      <c r="CC71" s="51"/>
     </row>
     <row r="72" spans="4:81" ht="12" customHeight="1">
       <c r="D72" s="4"/>
@@ -7716,7 +8190,7 @@
       <c r="BA72" s="5"/>
       <c r="BB72" s="5"/>
       <c r="BC72" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="BD72" s="5"/>
       <c r="BE72" s="5"/>
@@ -7730,22 +8204,22 @@
       <c r="BM72" s="5"/>
       <c r="BN72" s="5"/>
       <c r="BO72" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="BP72" s="5"/>
       <c r="BQ72" s="6"/>
-      <c r="BR72" s="90"/>
-      <c r="BS72" s="91"/>
-      <c r="BT72" s="91"/>
-      <c r="BU72" s="91"/>
-      <c r="BV72" s="91"/>
-      <c r="BW72" s="91"/>
-      <c r="BX72" s="91"/>
-      <c r="BY72" s="91"/>
-      <c r="BZ72" s="91"/>
-      <c r="CA72" s="91"/>
-      <c r="CB72" s="91"/>
-      <c r="CC72" s="92"/>
+      <c r="BR72" s="61"/>
+      <c r="BS72" s="62"/>
+      <c r="BT72" s="62"/>
+      <c r="BU72" s="62"/>
+      <c r="BV72" s="62"/>
+      <c r="BW72" s="62"/>
+      <c r="BX72" s="62"/>
+      <c r="BY72" s="62"/>
+      <c r="BZ72" s="62"/>
+      <c r="CA72" s="62"/>
+      <c r="CB72" s="62"/>
+      <c r="CC72" s="63"/>
     </row>
     <row r="73" spans="4:81" ht="12" customHeight="1">
       <c r="D73" s="4"/>
@@ -7833,7 +8307,7 @@
       <c r="BP74" s="5"/>
       <c r="BQ74" s="5"/>
       <c r="BR74" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="BS74" s="2"/>
       <c r="BT74" s="2"/>
@@ -7870,15 +8344,15 @@
       <c r="W75" s="2"/>
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
-      <c r="Z75" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA75" s="44"/>
+      <c r="Z75" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA75" s="43"/>
       <c r="AB75" s="2"/>
-      <c r="AC75" s="86" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD75" s="44"/>
+      <c r="AC75" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD75" s="43"/>
       <c r="AE75" s="2"/>
       <c r="AF75" s="2"/>
       <c r="AG75" s="2"/>
@@ -7924,11 +8398,11 @@
       <c r="W76" s="8"/>
       <c r="X76" s="8"/>
       <c r="Y76" s="8"/>
-      <c r="Z76" s="45"/>
-      <c r="AA76" s="47"/>
+      <c r="Z76" s="44"/>
+      <c r="AA76" s="45"/>
       <c r="AB76" s="8"/>
-      <c r="AC76" s="45"/>
-      <c r="AD76" s="47"/>
+      <c r="AC76" s="44"/>
+      <c r="AD76" s="45"/>
       <c r="AE76" s="8"/>
       <c r="AF76" s="8"/>
       <c r="AG76" s="8"/>
@@ -7939,7 +8413,7 @@
       <c r="AV76" s="4"/>
       <c r="AW76" s="5"/>
       <c r="BR76" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="BS76" s="2"/>
       <c r="BT76" s="2"/>
@@ -8012,27 +8486,27 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="M78" s="43"/>
-      <c r="N78" s="43"/>
-      <c r="O78" s="43"/>
-      <c r="P78" s="43"/>
-      <c r="Q78" s="43"/>
-      <c r="R78" s="43"/>
-      <c r="S78" s="43"/>
-      <c r="T78" s="43"/>
-      <c r="U78" s="43"/>
-      <c r="V78" s="43"/>
-      <c r="W78" s="43"/>
-      <c r="X78" s="43"/>
-      <c r="Y78" s="43"/>
-      <c r="Z78" s="43"/>
-      <c r="AA78" s="43"/>
-      <c r="AB78" s="43"/>
-      <c r="AC78" s="43"/>
-      <c r="AD78" s="44"/>
+      <c r="L78" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="M78" s="48"/>
+      <c r="N78" s="48"/>
+      <c r="O78" s="48"/>
+      <c r="P78" s="48"/>
+      <c r="Q78" s="48"/>
+      <c r="R78" s="48"/>
+      <c r="S78" s="48"/>
+      <c r="T78" s="48"/>
+      <c r="U78" s="48"/>
+      <c r="V78" s="48"/>
+      <c r="W78" s="48"/>
+      <c r="X78" s="48"/>
+      <c r="Y78" s="48"/>
+      <c r="Z78" s="48"/>
+      <c r="AA78" s="48"/>
+      <c r="AB78" s="48"/>
+      <c r="AC78" s="48"/>
+      <c r="AD78" s="43"/>
       <c r="AE78" s="5"/>
       <c r="AF78" s="5"/>
       <c r="AG78" s="5"/>
@@ -8057,25 +8531,25 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="45"/>
-      <c r="M79" s="46"/>
-      <c r="N79" s="46"/>
-      <c r="O79" s="46"/>
-      <c r="P79" s="46"/>
-      <c r="Q79" s="46"/>
-      <c r="R79" s="46"/>
-      <c r="S79" s="46"/>
-      <c r="T79" s="46"/>
-      <c r="U79" s="46"/>
-      <c r="V79" s="46"/>
-      <c r="W79" s="46"/>
-      <c r="X79" s="46"/>
-      <c r="Y79" s="46"/>
-      <c r="Z79" s="46"/>
-      <c r="AA79" s="46"/>
-      <c r="AB79" s="46"/>
-      <c r="AC79" s="46"/>
-      <c r="AD79" s="47"/>
+      <c r="L79" s="44"/>
+      <c r="M79" s="49"/>
+      <c r="N79" s="49"/>
+      <c r="O79" s="49"/>
+      <c r="P79" s="49"/>
+      <c r="Q79" s="49"/>
+      <c r="R79" s="49"/>
+      <c r="S79" s="49"/>
+      <c r="T79" s="49"/>
+      <c r="U79" s="49"/>
+      <c r="V79" s="49"/>
+      <c r="W79" s="49"/>
+      <c r="X79" s="49"/>
+      <c r="Y79" s="49"/>
+      <c r="Z79" s="49"/>
+      <c r="AA79" s="49"/>
+      <c r="AB79" s="49"/>
+      <c r="AC79" s="49"/>
+      <c r="AD79" s="45"/>
       <c r="AE79" s="5"/>
       <c r="AF79" s="5"/>
       <c r="AG79" s="5"/>
@@ -8086,7 +8560,7 @@
       <c r="AV79" s="4"/>
       <c r="AW79" s="5"/>
       <c r="BR79" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BS79" s="5"/>
       <c r="BT79" s="5"/>
@@ -8173,29 +8647,29 @@
       <c r="AK81" s="9"/>
       <c r="AV81" s="4"/>
       <c r="AW81" s="5"/>
-      <c r="BR81" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS81" s="43"/>
-      <c r="BT81" s="43"/>
-      <c r="BU81" s="44"/>
-      <c r="BX81" s="42">
+      <c r="BR81" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="BS81" s="48"/>
+      <c r="BT81" s="48"/>
+      <c r="BU81" s="43"/>
+      <c r="BX81" s="47">
         <v>2017</v>
       </c>
-      <c r="BY81" s="43"/>
-      <c r="BZ81" s="44"/>
+      <c r="BY81" s="48"/>
+      <c r="BZ81" s="43"/>
       <c r="CC81" s="6"/>
     </row>
     <row r="82" spans="4:81" ht="12" customHeight="1">
       <c r="AV82" s="4"/>
       <c r="AW82" s="5"/>
-      <c r="BR82" s="45"/>
-      <c r="BS82" s="46"/>
-      <c r="BT82" s="46"/>
-      <c r="BU82" s="47"/>
-      <c r="BX82" s="45"/>
-      <c r="BY82" s="46"/>
-      <c r="BZ82" s="47"/>
+      <c r="BR82" s="44"/>
+      <c r="BS82" s="49"/>
+      <c r="BT82" s="49"/>
+      <c r="BU82" s="45"/>
+      <c r="BX82" s="44"/>
+      <c r="BY82" s="49"/>
+      <c r="BZ82" s="45"/>
       <c r="CC82" s="6"/>
     </row>
     <row r="83" spans="4:81" ht="12" customHeight="1">
@@ -8210,27 +8684,27 @@
     <row r="84" spans="4:81" ht="12" customHeight="1">
       <c r="AV84" s="4"/>
       <c r="AW84" s="5"/>
-      <c r="BR84" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="BS84" s="43"/>
-      <c r="BT84" s="44"/>
+      <c r="BR84" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="BS84" s="48"/>
+      <c r="BT84" s="43"/>
       <c r="BU84" s="5"/>
-      <c r="BX84" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="BY84" s="44"/>
+      <c r="BX84" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="BY84" s="43"/>
       <c r="CC84" s="6"/>
     </row>
     <row r="85" spans="4:81" ht="12" customHeight="1">
       <c r="AV85" s="4"/>
       <c r="AW85" s="5"/>
-      <c r="BR85" s="45"/>
-      <c r="BS85" s="46"/>
-      <c r="BT85" s="47"/>
+      <c r="BR85" s="44"/>
+      <c r="BS85" s="49"/>
+      <c r="BT85" s="45"/>
       <c r="BU85" s="5"/>
-      <c r="BX85" s="45"/>
-      <c r="BY85" s="47"/>
+      <c r="BX85" s="44"/>
+      <c r="BY85" s="45"/>
       <c r="CC85" s="6"/>
     </row>
     <row r="86" spans="4:81" ht="12" customHeight="1">
@@ -8287,8 +8761,182 @@
       <c r="CB88" s="8"/>
       <c r="CC88" s="9"/>
     </row>
+    <row r="89" spans="4:81" ht="12" customHeight="1">
+      <c r="AV89" s="1"/>
+      <c r="AW89" s="2"/>
+      <c r="AX89" s="2"/>
+      <c r="AY89" s="2"/>
+      <c r="AZ89" s="2"/>
+      <c r="BA89" s="2"/>
+      <c r="BB89" s="2"/>
+      <c r="BC89" s="2"/>
+      <c r="BD89" s="2"/>
+      <c r="BE89" s="2"/>
+      <c r="BF89" s="2"/>
+      <c r="BG89" s="2"/>
+      <c r="BH89" s="2"/>
+      <c r="BI89" s="104" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ89" s="101"/>
+      <c r="BK89" s="101"/>
+      <c r="BL89" s="101"/>
+      <c r="BM89" s="101"/>
+      <c r="BN89" s="101"/>
+      <c r="BO89" s="101"/>
+      <c r="BP89" s="105"/>
+      <c r="BQ89" s="2"/>
+      <c r="BR89" s="2"/>
+      <c r="BS89" s="2"/>
+      <c r="BT89" s="2"/>
+      <c r="BU89" s="2"/>
+      <c r="BV89" s="2"/>
+      <c r="BW89" s="2"/>
+      <c r="BX89" s="2"/>
+      <c r="BY89" s="2"/>
+      <c r="BZ89" s="2"/>
+      <c r="CA89" s="2"/>
+      <c r="CB89" s="2"/>
+      <c r="CC89" s="3"/>
+    </row>
+    <row r="90" spans="4:81" ht="12" customHeight="1">
+      <c r="AV90" s="4"/>
+      <c r="AW90" s="5"/>
+      <c r="AX90" s="5"/>
+      <c r="AY90" s="5"/>
+      <c r="AZ90" s="5"/>
+      <c r="BA90" s="5"/>
+      <c r="BB90" s="5"/>
+      <c r="BC90" s="5"/>
+      <c r="BD90" s="5"/>
+      <c r="BE90" s="5"/>
+      <c r="BF90" s="5"/>
+      <c r="BG90" s="5"/>
+      <c r="BH90" s="5"/>
+      <c r="BI90" s="106"/>
+      <c r="BJ90" s="102"/>
+      <c r="BK90" s="102"/>
+      <c r="BL90" s="102"/>
+      <c r="BM90" s="102"/>
+      <c r="BN90" s="102"/>
+      <c r="BO90" s="102"/>
+      <c r="BP90" s="107"/>
+      <c r="BQ90" s="5"/>
+      <c r="BR90" s="5"/>
+      <c r="BS90" s="5"/>
+      <c r="BT90" s="5"/>
+      <c r="BU90" s="5"/>
+      <c r="BV90" s="5"/>
+      <c r="BW90" s="5"/>
+      <c r="BX90" s="5"/>
+      <c r="BY90" s="5"/>
+      <c r="BZ90" s="5"/>
+      <c r="CA90" s="5"/>
+      <c r="CB90" s="5"/>
+      <c r="CC90" s="6"/>
+    </row>
+    <row r="91" spans="4:81" ht="12" customHeight="1">
+      <c r="AV91" s="4"/>
+      <c r="AW91" s="5"/>
+      <c r="AX91" s="5"/>
+      <c r="AY91" s="5"/>
+      <c r="AZ91" s="5"/>
+      <c r="BA91" s="5"/>
+      <c r="BB91" s="5"/>
+      <c r="BC91" s="5"/>
+      <c r="BD91" s="5"/>
+      <c r="BE91" s="5"/>
+      <c r="BF91" s="5"/>
+      <c r="BG91" s="5"/>
+      <c r="BH91" s="5"/>
+      <c r="BI91" s="106"/>
+      <c r="BJ91" s="102"/>
+      <c r="BK91" s="102"/>
+      <c r="BL91" s="102"/>
+      <c r="BM91" s="102"/>
+      <c r="BN91" s="102"/>
+      <c r="BO91" s="102"/>
+      <c r="BP91" s="107"/>
+      <c r="BQ91" s="5"/>
+      <c r="BR91" s="5"/>
+      <c r="BS91" s="5"/>
+      <c r="BT91" s="5"/>
+      <c r="BU91" s="5"/>
+      <c r="BV91" s="5"/>
+      <c r="BW91" s="5"/>
+      <c r="BX91" s="5"/>
+      <c r="BY91" s="5"/>
+      <c r="BZ91" s="5"/>
+      <c r="CA91" s="5"/>
+      <c r="CB91" s="5"/>
+      <c r="CC91" s="6"/>
+    </row>
+    <row r="92" spans="4:81" ht="12" customHeight="1">
+      <c r="AV92" s="7"/>
+      <c r="AW92" s="8"/>
+      <c r="AX92" s="8"/>
+      <c r="AY92" s="8"/>
+      <c r="AZ92" s="8"/>
+      <c r="BA92" s="8"/>
+      <c r="BB92" s="8"/>
+      <c r="BC92" s="8"/>
+      <c r="BD92" s="8"/>
+      <c r="BE92" s="8"/>
+      <c r="BF92" s="8"/>
+      <c r="BG92" s="8"/>
+      <c r="BH92" s="8"/>
+      <c r="BI92" s="108"/>
+      <c r="BJ92" s="103"/>
+      <c r="BK92" s="103"/>
+      <c r="BL92" s="103"/>
+      <c r="BM92" s="103"/>
+      <c r="BN92" s="103"/>
+      <c r="BO92" s="103"/>
+      <c r="BP92" s="109"/>
+      <c r="BQ92" s="8"/>
+      <c r="BR92" s="8"/>
+      <c r="BS92" s="8"/>
+      <c r="BT92" s="8"/>
+      <c r="BU92" s="8"/>
+      <c r="BV92" s="8"/>
+      <c r="BW92" s="8"/>
+      <c r="BX92" s="8"/>
+      <c r="BY92" s="8"/>
+      <c r="BZ92" s="8"/>
+      <c r="CA92" s="8"/>
+      <c r="CB92" s="8"/>
+      <c r="CC92" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="38">
+    <mergeCell ref="BI89:BP92"/>
+    <mergeCell ref="BR84:BT85"/>
+    <mergeCell ref="BX84:BY85"/>
+    <mergeCell ref="AE1:AG2"/>
+    <mergeCell ref="AL1:AN2"/>
+    <mergeCell ref="AO1:AR2"/>
+    <mergeCell ref="AO3:AR4"/>
+    <mergeCell ref="AH1:AK2"/>
+    <mergeCell ref="AW39:BD40"/>
+    <mergeCell ref="AW37:BJ38"/>
+    <mergeCell ref="AE3:AG4"/>
+    <mergeCell ref="AH3:AK4"/>
+    <mergeCell ref="AL3:AN4"/>
+    <mergeCell ref="BR81:BU82"/>
+    <mergeCell ref="BX81:BZ82"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="AZ11:BC13"/>
+    <mergeCell ref="A1:H4"/>
+    <mergeCell ref="I1:R4"/>
+    <mergeCell ref="S1:U2"/>
+    <mergeCell ref="V1:AD2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AD4"/>
     <mergeCell ref="Z75:AA76"/>
     <mergeCell ref="AC75:AD76"/>
     <mergeCell ref="L78:AD79"/>
@@ -8299,37 +8947,11 @@
     <mergeCell ref="BR65:BX66"/>
     <mergeCell ref="BR67:CC68"/>
     <mergeCell ref="BR71:CC72"/>
-    <mergeCell ref="A1:H4"/>
-    <mergeCell ref="I1:R4"/>
-    <mergeCell ref="S1:U2"/>
-    <mergeCell ref="V1:AD2"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="AZ11:BC13"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AD4"/>
-    <mergeCell ref="AE3:AG4"/>
-    <mergeCell ref="AH3:AK4"/>
-    <mergeCell ref="AL3:AN4"/>
-    <mergeCell ref="BR81:BU82"/>
-    <mergeCell ref="BX81:BZ82"/>
-    <mergeCell ref="BR84:BT85"/>
-    <mergeCell ref="BX84:BY85"/>
-    <mergeCell ref="AE1:AG2"/>
-    <mergeCell ref="AL1:AN2"/>
-    <mergeCell ref="AO1:AR2"/>
-    <mergeCell ref="AO3:AR4"/>
-    <mergeCell ref="AH1:AK2"/>
-    <mergeCell ref="AW37:BT38"/>
-    <mergeCell ref="AW39:BD40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Documents/Detail Design/K0002_Booking/K0002-1-BookRoomPage.xlsx
+++ b/Documents/Detail Design/K0002_Booking/K0002-1-BookRoomPage.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ChuyenNganh\ChuyenNhanh9\Final_Project\Documents\Detail Design\K0002_Booking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\卒業研究\FPT_卒業提案\captones\Final_Project\Documents\Detail Design\K0002_Booking\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -180,21 +180,6 @@
     <t>Logo</t>
   </si>
   <si>
-    <t>Ngôn ngữ</t>
-  </si>
-  <si>
-    <t>Trang chủ</t>
-  </si>
-  <si>
-    <t>Phòng</t>
-  </si>
-  <si>
-    <t>Ảnh</t>
-  </si>
-  <si>
-    <t>Đăng nhập</t>
-  </si>
-  <si>
     <t>Room 1</t>
   </si>
   <si>
@@ -235,9 +220,6 @@
   </si>
   <si>
     <t>Ins</t>
-  </si>
-  <si>
-    <t>Thông tin liên hệ</t>
   </si>
   <si>
     <t>#1</t>
@@ -391,6 +373,24 @@
   </si>
   <si>
     <t>Book</t>
+  </si>
+  <si>
+    <t>Contacts</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>Login</t>
   </si>
 </sst>
 </file>
@@ -767,7 +767,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -776,62 +812,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -887,88 +926,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3233,13 +3233,8 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Apply</a:t>
+            <a:t>Search</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> Criterial</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4329,8 +4324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CC92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AZ70" sqref="AZ70"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AO21" sqref="AO21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="12" customHeight="1"/>
@@ -4344,248 +4339,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="12" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="73" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="82" t="s">
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="83"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="85" t="s">
+      <c r="T1" s="70"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="75"/>
-      <c r="AE1" s="91" t="s">
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="88"/>
+      <c r="AE1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AF1" s="91"/>
-      <c r="AG1" s="91"/>
-      <c r="AH1" s="92">
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="64">
         <v>42982</v>
       </c>
-      <c r="AI1" s="93"/>
-      <c r="AJ1" s="93"/>
-      <c r="AK1" s="93"/>
-      <c r="AL1" s="94" t="s">
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="AM1" s="94"/>
-      <c r="AN1" s="94"/>
-      <c r="AO1" s="95" t="s">
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="96"/>
-      <c r="AQ1" s="96"/>
-      <c r="AR1" s="96"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
     </row>
     <row r="2" spans="1:55" ht="12" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="91"/>
-      <c r="AF2" s="91"/>
-      <c r="AG2" s="91"/>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="94"/>
-      <c r="AM2" s="94"/>
-      <c r="AN2" s="94"/>
-      <c r="AO2" s="96"/>
-      <c r="AP2" s="96"/>
-      <c r="AQ2" s="96"/>
-      <c r="AR2" s="96"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="60"/>
+      <c r="AO2" s="62"/>
+      <c r="AP2" s="62"/>
+      <c r="AQ2" s="62"/>
+      <c r="AR2" s="62"/>
     </row>
     <row r="3" spans="1:55" ht="12" customHeight="1">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="82" t="s">
+      <c r="A3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="83"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="85" t="s">
+      <c r="T3" s="70"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="74"/>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="91" t="s">
+      <c r="W3" s="87"/>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="87"/>
+      <c r="AD3" s="88"/>
+      <c r="AE3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="AF3" s="91"/>
-      <c r="AG3" s="91"/>
-      <c r="AH3" s="92"/>
-      <c r="AI3" s="93"/>
-      <c r="AJ3" s="93"/>
-      <c r="AK3" s="93"/>
-      <c r="AL3" s="91"/>
-      <c r="AM3" s="91"/>
-      <c r="AN3" s="91"/>
-      <c r="AO3" s="93"/>
-      <c r="AP3" s="93"/>
-      <c r="AQ3" s="93"/>
-      <c r="AR3" s="93"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="63"/>
+      <c r="AK3" s="63"/>
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="59"/>
+      <c r="AO3" s="63"/>
+      <c r="AP3" s="63"/>
+      <c r="AQ3" s="63"/>
+      <c r="AR3" s="63"/>
     </row>
     <row r="4" spans="1:55" ht="12" customHeight="1">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="83"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="79"/>
-      <c r="W4" s="80"/>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="80"/>
-      <c r="AD4" s="81"/>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="91"/>
-      <c r="AH4" s="93"/>
-      <c r="AI4" s="93"/>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="93"/>
-      <c r="AL4" s="91"/>
-      <c r="AM4" s="91"/>
-      <c r="AN4" s="91"/>
-      <c r="AO4" s="93"/>
-      <c r="AP4" s="93"/>
-      <c r="AQ4" s="93"/>
-      <c r="AR4" s="93"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="63"/>
+      <c r="AK4" s="63"/>
+      <c r="AL4" s="59"/>
+      <c r="AM4" s="59"/>
+      <c r="AN4" s="59"/>
+      <c r="AO4" s="63"/>
+      <c r="AP4" s="63"/>
+      <c r="AQ4" s="63"/>
+      <c r="AR4" s="63"/>
     </row>
     <row r="6" spans="1:55" ht="12" customHeight="1">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="86" t="s">
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="88"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="74"/>
     </row>
     <row r="7" spans="1:55" ht="12" customHeight="1">
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="86" t="s">
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="88"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="74"/>
     </row>
     <row r="9" spans="1:55" ht="12" customHeight="1">
       <c r="B9" s="5"/>
@@ -4709,21 +4704,21 @@
       <c r="AL11" s="5"/>
       <c r="AM11" s="5"/>
       <c r="AN11" s="5"/>
-      <c r="AZ11" s="90" t="s">
-        <v>44</v>
-      </c>
-      <c r="BA11" s="90"/>
-      <c r="BB11" s="90"/>
-      <c r="BC11" s="90"/>
+      <c r="AZ11" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA11" s="76"/>
+      <c r="BB11" s="76"/>
+      <c r="BC11" s="76"/>
     </row>
     <row r="12" spans="1:55" ht="12" customHeight="1">
       <c r="B12" s="5"/>
       <c r="AM12" s="5"/>
       <c r="AN12" s="5"/>
-      <c r="AZ12" s="90"/>
-      <c r="BA12" s="90"/>
-      <c r="BB12" s="90"/>
-      <c r="BC12" s="90"/>
+      <c r="AZ12" s="76"/>
+      <c r="BA12" s="76"/>
+      <c r="BB12" s="76"/>
+      <c r="BC12" s="76"/>
     </row>
     <row r="13" spans="1:55" ht="12" customHeight="1">
       <c r="B13" s="5"/>
@@ -4734,7 +4729,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="2"/>
       <c r="H13" s="13" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -4745,28 +4740,28 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="10" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
       <c r="T13" s="12"/>
       <c r="U13" s="2"/>
       <c r="V13" s="10" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="12"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="10" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="AB13" s="11"/>
       <c r="AC13" s="11"/>
       <c r="AD13" s="12"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="10" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="AG13" s="11"/>
       <c r="AH13" s="11"/>
@@ -4775,10 +4770,10 @@
       <c r="AK13" s="3"/>
       <c r="AM13" s="5"/>
       <c r="AN13" s="5"/>
-      <c r="AZ13" s="90"/>
-      <c r="BA13" s="90"/>
-      <c r="BB13" s="90"/>
-      <c r="BC13" s="90"/>
+      <c r="AZ13" s="76"/>
+      <c r="BA13" s="76"/>
+      <c r="BB13" s="76"/>
+      <c r="BC13" s="76"/>
     </row>
     <row r="14" spans="1:55" ht="12" customHeight="1">
       <c r="B14" s="5"/>
@@ -4823,7 +4818,7 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="23" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
@@ -4862,7 +4857,7 @@
       <c r="AM15" s="5"/>
       <c r="AN15" s="5"/>
       <c r="AZ15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:55" ht="12" customHeight="1">
@@ -4906,7 +4901,7 @@
       <c r="AM16" s="5"/>
       <c r="AN16" s="5"/>
       <c r="AZ16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="2:63" ht="12" customHeight="1">
@@ -4950,7 +4945,7 @@
       <c r="AM17" s="5"/>
       <c r="AN17" s="5"/>
       <c r="BA17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:63" ht="12" customHeight="1">
@@ -5010,7 +5005,7 @@
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="P19" s="22" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q19" s="22"/>
       <c r="R19" s="22"/>
@@ -5037,10 +5032,10 @@
       <c r="AM19" s="5"/>
       <c r="AN19" s="5"/>
       <c r="AZ19" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="BA19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:63" ht="12" customHeight="1">
@@ -5084,7 +5079,7 @@
       <c r="AM20" s="5"/>
       <c r="AN20" s="5"/>
       <c r="BA20" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="2:63" ht="12" customHeight="1">
@@ -5255,7 +5250,7 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="26" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
@@ -5339,14 +5334,14 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
@@ -5540,7 +5535,7 @@
       <c r="AM31" s="5"/>
       <c r="AN31" s="5"/>
       <c r="AV31" s="41" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AW31" s="41"/>
       <c r="AX31" s="41"/>
@@ -5724,7 +5719,7 @@
     </row>
     <row r="36" spans="2:81" ht="12" customHeight="1">
       <c r="D36" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -5760,7 +5755,7 @@
       <c r="AJ36" s="2"/>
       <c r="AK36" s="3"/>
       <c r="AV36" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AW36" s="2"/>
       <c r="AX36" s="2"/>
@@ -5802,7 +5797,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="32"/>
       <c r="H37" s="33" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I37" s="33"/>
       <c r="J37" s="33"/>
@@ -5822,7 +5817,7 @@
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
       <c r="Z37" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
@@ -5832,38 +5827,38 @@
       <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
       <c r="AH37" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AI37" s="2"/>
       <c r="AJ37" s="2"/>
       <c r="AK37" s="3"/>
       <c r="AV37" s="4"/>
-      <c r="AW37" s="99" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX37" s="99"/>
-      <c r="AY37" s="99"/>
-      <c r="AZ37" s="99"/>
-      <c r="BA37" s="99"/>
-      <c r="BB37" s="99"/>
-      <c r="BC37" s="99"/>
-      <c r="BD37" s="99"/>
-      <c r="BE37" s="99"/>
-      <c r="BF37" s="99"/>
-      <c r="BG37" s="99"/>
-      <c r="BH37" s="99"/>
-      <c r="BI37" s="99"/>
-      <c r="BJ37" s="99"/>
-      <c r="BK37" s="97"/>
-      <c r="BL37" s="97"/>
-      <c r="BM37" s="97"/>
-      <c r="BN37" s="97"/>
-      <c r="BO37" s="97"/>
-      <c r="BP37" s="97"/>
-      <c r="BQ37" s="97"/>
-      <c r="BR37" s="97"/>
-      <c r="BS37" s="97"/>
-      <c r="BT37" s="97"/>
+      <c r="AW37" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX37" s="67"/>
+      <c r="AY37" s="67"/>
+      <c r="AZ37" s="67"/>
+      <c r="BA37" s="67"/>
+      <c r="BB37" s="67"/>
+      <c r="BC37" s="67"/>
+      <c r="BD37" s="67"/>
+      <c r="BE37" s="67"/>
+      <c r="BF37" s="67"/>
+      <c r="BG37" s="67"/>
+      <c r="BH37" s="67"/>
+      <c r="BI37" s="67"/>
+      <c r="BJ37" s="67"/>
+      <c r="BK37" s="42"/>
+      <c r="BL37" s="42"/>
+      <c r="BM37" s="42"/>
+      <c r="BN37" s="42"/>
+      <c r="BO37" s="42"/>
+      <c r="BP37" s="42"/>
+      <c r="BQ37" s="42"/>
+      <c r="BR37" s="42"/>
+      <c r="BS37" s="42"/>
+      <c r="BT37" s="42"/>
       <c r="BU37" s="5"/>
       <c r="BV37" s="5"/>
       <c r="BW37" s="5"/>
@@ -5899,7 +5894,7 @@
       <c r="Y38" s="5"/>
       <c r="Z38" s="4"/>
       <c r="AA38" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
@@ -5912,30 +5907,30 @@
       <c r="AJ38" s="5"/>
       <c r="AK38" s="6"/>
       <c r="AV38" s="7"/>
-      <c r="AW38" s="100"/>
-      <c r="AX38" s="100"/>
-      <c r="AY38" s="100"/>
-      <c r="AZ38" s="100"/>
-      <c r="BA38" s="100"/>
-      <c r="BB38" s="100"/>
-      <c r="BC38" s="100"/>
-      <c r="BD38" s="100"/>
-      <c r="BE38" s="100"/>
-      <c r="BF38" s="100"/>
-      <c r="BG38" s="100"/>
-      <c r="BH38" s="100"/>
-      <c r="BI38" s="100"/>
-      <c r="BJ38" s="100"/>
-      <c r="BK38" s="98"/>
-      <c r="BL38" s="98"/>
-      <c r="BM38" s="98"/>
-      <c r="BN38" s="98"/>
-      <c r="BO38" s="98"/>
-      <c r="BP38" s="98"/>
-      <c r="BQ38" s="98"/>
-      <c r="BR38" s="98"/>
-      <c r="BS38" s="98"/>
-      <c r="BT38" s="98"/>
+      <c r="AW38" s="68"/>
+      <c r="AX38" s="68"/>
+      <c r="AY38" s="68"/>
+      <c r="AZ38" s="68"/>
+      <c r="BA38" s="68"/>
+      <c r="BB38" s="68"/>
+      <c r="BC38" s="68"/>
+      <c r="BD38" s="68"/>
+      <c r="BE38" s="68"/>
+      <c r="BF38" s="68"/>
+      <c r="BG38" s="68"/>
+      <c r="BH38" s="68"/>
+      <c r="BI38" s="68"/>
+      <c r="BJ38" s="68"/>
+      <c r="BK38" s="43"/>
+      <c r="BL38" s="43"/>
+      <c r="BM38" s="43"/>
+      <c r="BN38" s="43"/>
+      <c r="BO38" s="43"/>
+      <c r="BP38" s="43"/>
+      <c r="BQ38" s="43"/>
+      <c r="BR38" s="43"/>
+      <c r="BS38" s="43"/>
+      <c r="BT38" s="43"/>
       <c r="BU38" s="8"/>
       <c r="BV38" s="8"/>
       <c r="BW38" s="8"/>
@@ -5971,7 +5966,7 @@
       <c r="Y39" s="5"/>
       <c r="Z39" s="4"/>
       <c r="AA39" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
@@ -5984,16 +5979,16 @@
       <c r="AJ39" s="5"/>
       <c r="AK39" s="6"/>
       <c r="AV39" s="23"/>
-      <c r="AW39" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX39" s="50"/>
-      <c r="AY39" s="50"/>
-      <c r="AZ39" s="50"/>
-      <c r="BA39" s="50"/>
-      <c r="BB39" s="50"/>
-      <c r="BC39" s="50"/>
-      <c r="BD39" s="50"/>
+      <c r="AW39" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="AX39" s="65"/>
+      <c r="AY39" s="65"/>
+      <c r="AZ39" s="65"/>
+      <c r="BA39" s="65"/>
+      <c r="BB39" s="65"/>
+      <c r="BC39" s="65"/>
+      <c r="BD39" s="65"/>
       <c r="BE39" s="24"/>
       <c r="BF39" s="24"/>
       <c r="BG39" s="24"/>
@@ -6056,14 +6051,14 @@
       <c r="AJ40" s="5"/>
       <c r="AK40" s="6"/>
       <c r="AV40" s="26"/>
-      <c r="AW40" s="53"/>
-      <c r="AX40" s="53"/>
-      <c r="AY40" s="53"/>
-      <c r="AZ40" s="53"/>
-      <c r="BA40" s="53"/>
-      <c r="BB40" s="53"/>
-      <c r="BC40" s="53"/>
-      <c r="BD40" s="53"/>
+      <c r="AW40" s="66"/>
+      <c r="AX40" s="66"/>
+      <c r="AY40" s="66"/>
+      <c r="AZ40" s="66"/>
+      <c r="BA40" s="66"/>
+      <c r="BB40" s="66"/>
+      <c r="BC40" s="66"/>
+      <c r="BD40" s="66"/>
       <c r="BE40" s="22"/>
       <c r="BF40" s="22"/>
       <c r="BG40" s="22"/>
@@ -6126,7 +6121,7 @@
       <c r="AJ41" s="8"/>
       <c r="AK41" s="9"/>
       <c r="AV41" s="26" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AW41" s="22"/>
       <c r="AX41" s="22"/>
@@ -6136,7 +6131,7 @@
       <c r="BB41" s="22"/>
       <c r="BC41" s="22"/>
       <c r="BD41" s="22" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="BE41" s="22"/>
       <c r="BF41" s="22"/>
@@ -6175,7 +6170,7 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
@@ -6190,7 +6185,7 @@
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
       <c r="Z42" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
@@ -6200,13 +6195,13 @@
       <c r="AF42" s="2"/>
       <c r="AG42" s="2"/>
       <c r="AH42" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI42" s="2"/>
       <c r="AJ42" s="2"/>
       <c r="AK42" s="3"/>
       <c r="AV42" s="26" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AW42" s="22"/>
       <c r="AX42" s="22"/>
@@ -6216,7 +6211,7 @@
       <c r="BB42" s="22"/>
       <c r="BC42" s="22"/>
       <c r="BD42" s="22" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="BE42" s="22"/>
       <c r="BF42" s="22"/>
@@ -6269,7 +6264,7 @@
       <c r="Y43" s="5"/>
       <c r="Z43" s="4"/>
       <c r="AA43" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
@@ -6282,7 +6277,7 @@
       <c r="AJ43" s="5"/>
       <c r="AK43" s="6"/>
       <c r="AV43" s="26" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AW43" s="22"/>
       <c r="AX43" s="22"/>
@@ -6292,7 +6287,7 @@
       <c r="BB43" s="22"/>
       <c r="BC43" s="22"/>
       <c r="BD43" s="22" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="BE43" s="22"/>
       <c r="BF43" s="22"/>
@@ -6345,7 +6340,7 @@
       <c r="Y44" s="5"/>
       <c r="Z44" s="4"/>
       <c r="AA44" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
@@ -6358,7 +6353,7 @@
       <c r="AJ44" s="5"/>
       <c r="AK44" s="6"/>
       <c r="AV44" s="26" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AW44" s="22"/>
       <c r="AX44" s="22"/>
@@ -6368,7 +6363,7 @@
       <c r="BB44" s="22"/>
       <c r="BC44" s="22"/>
       <c r="BD44" s="35" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="BE44" s="22"/>
       <c r="BF44" s="22"/>
@@ -6432,7 +6427,7 @@
       <c r="AJ45" s="5"/>
       <c r="AK45" s="6"/>
       <c r="AV45" s="26" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AW45" s="22"/>
       <c r="AX45" s="22"/>
@@ -6442,7 +6437,7 @@
       <c r="BB45" s="22"/>
       <c r="BC45" s="22"/>
       <c r="BD45" s="35" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="BE45" s="22"/>
       <c r="BF45" s="22"/>
@@ -6597,20 +6592,20 @@
       <c r="BO47" s="5"/>
       <c r="BP47" s="5"/>
       <c r="BQ47" s="3"/>
-      <c r="BR47" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="BS47" s="50"/>
-      <c r="BT47" s="50"/>
-      <c r="BU47" s="50"/>
-      <c r="BV47" s="50"/>
-      <c r="BW47" s="50"/>
-      <c r="BX47" s="50"/>
-      <c r="BY47" s="50"/>
-      <c r="BZ47" s="50"/>
-      <c r="CA47" s="50"/>
-      <c r="CB47" s="50"/>
-      <c r="CC47" s="51"/>
+      <c r="BR47" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="BS47" s="65"/>
+      <c r="BT47" s="65"/>
+      <c r="BU47" s="65"/>
+      <c r="BV47" s="65"/>
+      <c r="BW47" s="65"/>
+      <c r="BX47" s="65"/>
+      <c r="BY47" s="65"/>
+      <c r="BZ47" s="65"/>
+      <c r="CA47" s="65"/>
+      <c r="CB47" s="65"/>
+      <c r="CC47" s="98"/>
     </row>
     <row r="48" spans="2:81" ht="12" customHeight="1">
       <c r="D48" s="4"/>
@@ -6648,7 +6643,7 @@
       <c r="AJ48" s="5"/>
       <c r="AK48" s="6"/>
       <c r="AV48" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AW48" s="5"/>
       <c r="AX48" s="5"/>
@@ -6671,18 +6666,18 @@
       <c r="BO48" s="5"/>
       <c r="BP48" s="5"/>
       <c r="BQ48" s="6"/>
-      <c r="BR48" s="52"/>
-      <c r="BS48" s="53"/>
-      <c r="BT48" s="53"/>
-      <c r="BU48" s="53"/>
-      <c r="BV48" s="53"/>
-      <c r="BW48" s="53"/>
-      <c r="BX48" s="53"/>
-      <c r="BY48" s="53"/>
-      <c r="BZ48" s="53"/>
-      <c r="CA48" s="53"/>
-      <c r="CB48" s="53"/>
-      <c r="CC48" s="54"/>
+      <c r="BR48" s="99"/>
+      <c r="BS48" s="66"/>
+      <c r="BT48" s="66"/>
+      <c r="BU48" s="66"/>
+      <c r="BV48" s="66"/>
+      <c r="BW48" s="66"/>
+      <c r="BX48" s="66"/>
+      <c r="BY48" s="66"/>
+      <c r="BZ48" s="66"/>
+      <c r="CA48" s="66"/>
+      <c r="CB48" s="66"/>
+      <c r="CC48" s="100"/>
     </row>
     <row r="49" spans="4:81" ht="12" customHeight="1">
       <c r="D49" s="4"/>
@@ -6701,7 +6696,7 @@
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
@@ -6723,7 +6718,7 @@
       <c r="AK49" s="6"/>
       <c r="AV49" s="4"/>
       <c r="AW49" s="36" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="AX49" s="5"/>
       <c r="AY49" s="5"/>
@@ -6743,12 +6738,12 @@
       <c r="BM49" s="5"/>
       <c r="BN49" s="5"/>
       <c r="BO49" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="BP49" s="5"/>
       <c r="BQ49" s="6"/>
       <c r="BR49" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="BS49" s="5"/>
       <c r="BT49" s="5"/>
@@ -6768,7 +6763,7 @@
       <c r="F50" s="5"/>
       <c r="G50" s="4"/>
       <c r="H50" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -6780,7 +6775,7 @@
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
       <c r="R50" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
@@ -6803,7 +6798,7 @@
       <c r="AK50" s="6"/>
       <c r="AV50" s="4"/>
       <c r="AW50" s="36" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AX50" s="5"/>
       <c r="AY50" s="5"/>
@@ -6844,7 +6839,7 @@
       <c r="F51" s="5"/>
       <c r="G51" s="4"/>
       <c r="H51" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
@@ -6877,7 +6872,7 @@
       <c r="AK51" s="9"/>
       <c r="AV51" s="4"/>
       <c r="AW51" s="36" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AX51" s="5"/>
       <c r="AY51" s="5"/>
@@ -6918,7 +6913,7 @@
       <c r="F52" s="5"/>
       <c r="G52" s="7"/>
       <c r="H52" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
@@ -6948,7 +6943,7 @@
       <c r="AF52" s="5"/>
       <c r="AG52" s="5"/>
       <c r="AH52" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AI52" s="5"/>
       <c r="AJ52" s="5"/>
@@ -7013,7 +7008,7 @@
       <c r="Y53" s="5"/>
       <c r="Z53" s="4"/>
       <c r="AA53" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
@@ -7022,7 +7017,7 @@
       <c r="AF53" s="5"/>
       <c r="AG53" s="5"/>
       <c r="AH53" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AI53" s="5"/>
       <c r="AJ53" s="5"/>
@@ -7050,7 +7045,7 @@
       <c r="BP53" s="5"/>
       <c r="BQ53" s="6"/>
       <c r="BR53" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="BS53" s="5"/>
       <c r="BT53" s="5"/>
@@ -7089,7 +7084,7 @@
       <c r="Y54" s="5"/>
       <c r="Z54" s="4"/>
       <c r="AA54" s="31" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
@@ -7098,7 +7093,7 @@
       <c r="AF54" s="5"/>
       <c r="AG54" s="5"/>
       <c r="AH54" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI54" s="5"/>
       <c r="AJ54" s="5"/>
@@ -7125,7 +7120,7 @@
       <c r="BM54" s="5"/>
       <c r="BN54" s="5"/>
       <c r="BO54" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="BP54" s="5"/>
       <c r="BQ54" s="6"/>
@@ -7199,7 +7194,7 @@
       <c r="BM55" s="5"/>
       <c r="BN55" s="5"/>
       <c r="BO55" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="BP55" s="5"/>
       <c r="BQ55" s="6"/>
@@ -7222,7 +7217,7 @@
       <c r="F56" s="5"/>
       <c r="G56" s="32"/>
       <c r="H56" s="33" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I56" s="33"/>
       <c r="J56" s="33"/>
@@ -7346,18 +7341,18 @@
       <c r="BP57" s="5"/>
       <c r="BQ57" s="6"/>
       <c r="BR57" s="5"/>
-      <c r="BS57" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT57" s="43"/>
-      <c r="BU57" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV57" s="43"/>
-      <c r="BW57" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="BX57" s="43"/>
+      <c r="BS57" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="BT57" s="55"/>
+      <c r="BU57" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="BV57" s="55"/>
+      <c r="BW57" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="BX57" s="55"/>
       <c r="BY57" s="5"/>
       <c r="BZ57" s="5"/>
       <c r="CA57" s="5"/>
@@ -7395,7 +7390,7 @@
       <c r="AJ58" s="8"/>
       <c r="AK58" s="9"/>
       <c r="AV58" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AW58" s="5"/>
       <c r="AX58" s="5"/>
@@ -7419,12 +7414,12 @@
       <c r="BP58" s="5"/>
       <c r="BQ58" s="6"/>
       <c r="BR58" s="5"/>
-      <c r="BS58" s="44"/>
-      <c r="BT58" s="45"/>
-      <c r="BU58" s="44"/>
-      <c r="BV58" s="45"/>
-      <c r="BW58" s="44"/>
-      <c r="BX58" s="45"/>
+      <c r="BS58" s="56"/>
+      <c r="BT58" s="58"/>
+      <c r="BU58" s="56"/>
+      <c r="BV58" s="58"/>
+      <c r="BW58" s="56"/>
+      <c r="BX58" s="58"/>
       <c r="BY58" s="5"/>
       <c r="BZ58" s="5"/>
       <c r="CA58" s="5"/>
@@ -7452,7 +7447,7 @@
       <c r="AK59" s="3"/>
       <c r="AV59" s="4"/>
       <c r="AW59" s="36" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="AX59" s="5"/>
       <c r="AY59" s="5"/>
@@ -7508,7 +7503,7 @@
       <c r="AK60" s="6"/>
       <c r="AV60" s="4"/>
       <c r="AW60" s="36" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AX60" s="5"/>
       <c r="AY60" s="5"/>
@@ -7528,12 +7523,12 @@
       <c r="BM60" s="5"/>
       <c r="BN60" s="5"/>
       <c r="BO60" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="BP60" s="5"/>
       <c r="BQ60" s="6"/>
       <c r="BR60" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="BS60" s="5"/>
       <c r="BT60" s="5"/>
@@ -7556,7 +7551,7 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
@@ -7570,7 +7565,7 @@
       <c r="AK61" s="6"/>
       <c r="AV61" s="4"/>
       <c r="AW61" s="36" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AX61" s="5"/>
       <c r="AY61" s="5"/>
@@ -7754,12 +7749,12 @@
       <c r="BM64" s="5"/>
       <c r="BN64" s="5"/>
       <c r="BO64" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="BP64" s="5"/>
       <c r="BQ64" s="6"/>
       <c r="BR64" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="BS64" s="5"/>
       <c r="BT64" s="5"/>
@@ -7814,19 +7809,19 @@
       <c r="BM65" s="5"/>
       <c r="BN65" s="5"/>
       <c r="BO65" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="BP65" s="5"/>
       <c r="BQ65" s="6"/>
-      <c r="BR65" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS65" s="48"/>
-      <c r="BT65" s="48"/>
-      <c r="BU65" s="48"/>
-      <c r="BV65" s="48"/>
-      <c r="BW65" s="48"/>
-      <c r="BX65" s="43"/>
+      <c r="BR65" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS65" s="54"/>
+      <c r="BT65" s="54"/>
+      <c r="BU65" s="54"/>
+      <c r="BV65" s="54"/>
+      <c r="BW65" s="54"/>
+      <c r="BX65" s="55"/>
       <c r="BY65" s="5"/>
       <c r="BZ65" s="5"/>
       <c r="CA65" s="5"/>
@@ -7874,13 +7869,13 @@
       <c r="BO66" s="5"/>
       <c r="BP66" s="5"/>
       <c r="BQ66" s="6"/>
-      <c r="BR66" s="44"/>
-      <c r="BS66" s="49"/>
-      <c r="BT66" s="49"/>
-      <c r="BU66" s="49"/>
-      <c r="BV66" s="49"/>
-      <c r="BW66" s="49"/>
-      <c r="BX66" s="45"/>
+      <c r="BR66" s="56"/>
+      <c r="BS66" s="57"/>
+      <c r="BT66" s="57"/>
+      <c r="BU66" s="57"/>
+      <c r="BV66" s="57"/>
+      <c r="BW66" s="57"/>
+      <c r="BX66" s="58"/>
       <c r="BY66" s="5"/>
       <c r="BZ66" s="5"/>
       <c r="CA66" s="5"/>
@@ -7928,20 +7923,20 @@
       <c r="BO67" s="8"/>
       <c r="BP67" s="8"/>
       <c r="BQ67" s="9"/>
-      <c r="BR67" s="55">
+      <c r="BR67" s="101">
         <v>1648172064</v>
       </c>
-      <c r="BS67" s="56"/>
-      <c r="BT67" s="56"/>
-      <c r="BU67" s="56"/>
-      <c r="BV67" s="56"/>
-      <c r="BW67" s="56"/>
-      <c r="BX67" s="56"/>
-      <c r="BY67" s="56"/>
-      <c r="BZ67" s="56"/>
-      <c r="CA67" s="56"/>
-      <c r="CB67" s="56"/>
-      <c r="CC67" s="57"/>
+      <c r="BS67" s="102"/>
+      <c r="BT67" s="102"/>
+      <c r="BU67" s="102"/>
+      <c r="BV67" s="102"/>
+      <c r="BW67" s="102"/>
+      <c r="BX67" s="102"/>
+      <c r="BY67" s="102"/>
+      <c r="BZ67" s="102"/>
+      <c r="CA67" s="102"/>
+      <c r="CB67" s="102"/>
+      <c r="CC67" s="103"/>
     </row>
     <row r="68" spans="4:81" ht="12" customHeight="1">
       <c r="D68" s="4"/>
@@ -7958,7 +7953,7 @@
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
       <c r="S68" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
@@ -7986,24 +7981,24 @@
       <c r="BO68" s="2"/>
       <c r="BP68" s="2"/>
       <c r="BQ68" s="3"/>
-      <c r="BR68" s="58"/>
-      <c r="BS68" s="59"/>
-      <c r="BT68" s="59"/>
-      <c r="BU68" s="59"/>
-      <c r="BV68" s="59"/>
-      <c r="BW68" s="59"/>
-      <c r="BX68" s="59"/>
-      <c r="BY68" s="59"/>
-      <c r="BZ68" s="59"/>
-      <c r="CA68" s="59"/>
-      <c r="CB68" s="59"/>
-      <c r="CC68" s="60"/>
+      <c r="BR68" s="104"/>
+      <c r="BS68" s="105"/>
+      <c r="BT68" s="105"/>
+      <c r="BU68" s="105"/>
+      <c r="BV68" s="105"/>
+      <c r="BW68" s="105"/>
+      <c r="BX68" s="105"/>
+      <c r="BY68" s="105"/>
+      <c r="BZ68" s="105"/>
+      <c r="CA68" s="105"/>
+      <c r="CB68" s="105"/>
+      <c r="CC68" s="106"/>
     </row>
     <row r="69" spans="4:81" ht="12" customHeight="1">
       <c r="D69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
@@ -8015,7 +8010,7 @@
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
       <c r="R69" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="S69" s="5"/>
       <c r="T69" s="5"/>
@@ -8044,7 +8039,7 @@
       <c r="BM69" s="5"/>
       <c r="BN69" s="5"/>
       <c r="BO69" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="BP69" s="5"/>
       <c r="BQ69" s="6"/>
@@ -8065,7 +8060,7 @@
       <c r="D70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
@@ -8090,7 +8085,7 @@
       <c r="BA70" s="5"/>
       <c r="BB70" s="5"/>
       <c r="BC70" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="BD70" s="5"/>
       <c r="BE70" s="5"/>
@@ -8104,7 +8099,7 @@
       <c r="BM70" s="5"/>
       <c r="BN70" s="5"/>
       <c r="BO70" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="BP70" s="5"/>
       <c r="BQ70" s="6"/>
@@ -8125,7 +8120,7 @@
       <c r="D71" s="4"/>
       <c r="G71" s="7"/>
       <c r="H71" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
@@ -8164,20 +8159,20 @@
       <c r="BO71" s="5"/>
       <c r="BP71" s="5"/>
       <c r="BQ71" s="6"/>
-      <c r="BR71" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="BS71" s="50"/>
-      <c r="BT71" s="50"/>
-      <c r="BU71" s="50"/>
-      <c r="BV71" s="50"/>
-      <c r="BW71" s="50"/>
-      <c r="BX71" s="50"/>
-      <c r="BY71" s="50"/>
-      <c r="BZ71" s="50"/>
-      <c r="CA71" s="50"/>
-      <c r="CB71" s="50"/>
-      <c r="CC71" s="51"/>
+      <c r="BR71" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="BS71" s="65"/>
+      <c r="BT71" s="65"/>
+      <c r="BU71" s="65"/>
+      <c r="BV71" s="65"/>
+      <c r="BW71" s="65"/>
+      <c r="BX71" s="65"/>
+      <c r="BY71" s="65"/>
+      <c r="BZ71" s="65"/>
+      <c r="CA71" s="65"/>
+      <c r="CB71" s="65"/>
+      <c r="CC71" s="98"/>
     </row>
     <row r="72" spans="4:81" ht="12" customHeight="1">
       <c r="D72" s="4"/>
@@ -8190,7 +8185,7 @@
       <c r="BA72" s="5"/>
       <c r="BB72" s="5"/>
       <c r="BC72" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="BD72" s="5"/>
       <c r="BE72" s="5"/>
@@ -8204,22 +8199,22 @@
       <c r="BM72" s="5"/>
       <c r="BN72" s="5"/>
       <c r="BO72" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="BP72" s="5"/>
       <c r="BQ72" s="6"/>
-      <c r="BR72" s="61"/>
-      <c r="BS72" s="62"/>
-      <c r="BT72" s="62"/>
-      <c r="BU72" s="62"/>
-      <c r="BV72" s="62"/>
-      <c r="BW72" s="62"/>
-      <c r="BX72" s="62"/>
-      <c r="BY72" s="62"/>
-      <c r="BZ72" s="62"/>
-      <c r="CA72" s="62"/>
-      <c r="CB72" s="62"/>
-      <c r="CC72" s="63"/>
+      <c r="BR72" s="107"/>
+      <c r="BS72" s="108"/>
+      <c r="BT72" s="108"/>
+      <c r="BU72" s="108"/>
+      <c r="BV72" s="108"/>
+      <c r="BW72" s="108"/>
+      <c r="BX72" s="108"/>
+      <c r="BY72" s="108"/>
+      <c r="BZ72" s="108"/>
+      <c r="CA72" s="108"/>
+      <c r="CB72" s="108"/>
+      <c r="CC72" s="109"/>
     </row>
     <row r="73" spans="4:81" ht="12" customHeight="1">
       <c r="D73" s="4"/>
@@ -8307,7 +8302,7 @@
       <c r="BP74" s="5"/>
       <c r="BQ74" s="5"/>
       <c r="BR74" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="BS74" s="2"/>
       <c r="BT74" s="2"/>
@@ -8344,15 +8339,15 @@
       <c r="W75" s="2"/>
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
-      <c r="Z75" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA75" s="43"/>
+      <c r="Z75" s="96" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA75" s="55"/>
       <c r="AB75" s="2"/>
-      <c r="AC75" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD75" s="43"/>
+      <c r="AC75" s="97" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD75" s="55"/>
       <c r="AE75" s="2"/>
       <c r="AF75" s="2"/>
       <c r="AG75" s="2"/>
@@ -8398,11 +8393,11 @@
       <c r="W76" s="8"/>
       <c r="X76" s="8"/>
       <c r="Y76" s="8"/>
-      <c r="Z76" s="44"/>
-      <c r="AA76" s="45"/>
+      <c r="Z76" s="56"/>
+      <c r="AA76" s="58"/>
       <c r="AB76" s="8"/>
-      <c r="AC76" s="44"/>
-      <c r="AD76" s="45"/>
+      <c r="AC76" s="56"/>
+      <c r="AD76" s="58"/>
       <c r="AE76" s="8"/>
       <c r="AF76" s="8"/>
       <c r="AG76" s="8"/>
@@ -8413,7 +8408,7 @@
       <c r="AV76" s="4"/>
       <c r="AW76" s="5"/>
       <c r="BR76" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="BS76" s="2"/>
       <c r="BT76" s="2"/>
@@ -8486,27 +8481,27 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="M78" s="48"/>
-      <c r="N78" s="48"/>
-      <c r="O78" s="48"/>
-      <c r="P78" s="48"/>
-      <c r="Q78" s="48"/>
-      <c r="R78" s="48"/>
-      <c r="S78" s="48"/>
-      <c r="T78" s="48"/>
-      <c r="U78" s="48"/>
-      <c r="V78" s="48"/>
-      <c r="W78" s="48"/>
-      <c r="X78" s="48"/>
-      <c r="Y78" s="48"/>
-      <c r="Z78" s="48"/>
-      <c r="AA78" s="48"/>
-      <c r="AB78" s="48"/>
-      <c r="AC78" s="48"/>
-      <c r="AD78" s="43"/>
+      <c r="L78" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M78" s="54"/>
+      <c r="N78" s="54"/>
+      <c r="O78" s="54"/>
+      <c r="P78" s="54"/>
+      <c r="Q78" s="54"/>
+      <c r="R78" s="54"/>
+      <c r="S78" s="54"/>
+      <c r="T78" s="54"/>
+      <c r="U78" s="54"/>
+      <c r="V78" s="54"/>
+      <c r="W78" s="54"/>
+      <c r="X78" s="54"/>
+      <c r="Y78" s="54"/>
+      <c r="Z78" s="54"/>
+      <c r="AA78" s="54"/>
+      <c r="AB78" s="54"/>
+      <c r="AC78" s="54"/>
+      <c r="AD78" s="55"/>
       <c r="AE78" s="5"/>
       <c r="AF78" s="5"/>
       <c r="AG78" s="5"/>
@@ -8531,25 +8526,25 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="44"/>
-      <c r="M79" s="49"/>
-      <c r="N79" s="49"/>
-      <c r="O79" s="49"/>
-      <c r="P79" s="49"/>
-      <c r="Q79" s="49"/>
-      <c r="R79" s="49"/>
-      <c r="S79" s="49"/>
-      <c r="T79" s="49"/>
-      <c r="U79" s="49"/>
-      <c r="V79" s="49"/>
-      <c r="W79" s="49"/>
-      <c r="X79" s="49"/>
-      <c r="Y79" s="49"/>
-      <c r="Z79" s="49"/>
-      <c r="AA79" s="49"/>
-      <c r="AB79" s="49"/>
-      <c r="AC79" s="49"/>
-      <c r="AD79" s="45"/>
+      <c r="L79" s="56"/>
+      <c r="M79" s="57"/>
+      <c r="N79" s="57"/>
+      <c r="O79" s="57"/>
+      <c r="P79" s="57"/>
+      <c r="Q79" s="57"/>
+      <c r="R79" s="57"/>
+      <c r="S79" s="57"/>
+      <c r="T79" s="57"/>
+      <c r="U79" s="57"/>
+      <c r="V79" s="57"/>
+      <c r="W79" s="57"/>
+      <c r="X79" s="57"/>
+      <c r="Y79" s="57"/>
+      <c r="Z79" s="57"/>
+      <c r="AA79" s="57"/>
+      <c r="AB79" s="57"/>
+      <c r="AC79" s="57"/>
+      <c r="AD79" s="58"/>
       <c r="AE79" s="5"/>
       <c r="AF79" s="5"/>
       <c r="AG79" s="5"/>
@@ -8560,7 +8555,7 @@
       <c r="AV79" s="4"/>
       <c r="AW79" s="5"/>
       <c r="BR79" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="BS79" s="5"/>
       <c r="BT79" s="5"/>
@@ -8647,29 +8642,29 @@
       <c r="AK81" s="9"/>
       <c r="AV81" s="4"/>
       <c r="AW81" s="5"/>
-      <c r="BR81" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="BS81" s="48"/>
-      <c r="BT81" s="48"/>
-      <c r="BU81" s="43"/>
-      <c r="BX81" s="47">
+      <c r="BR81" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="BS81" s="54"/>
+      <c r="BT81" s="54"/>
+      <c r="BU81" s="55"/>
+      <c r="BX81" s="53">
         <v>2017</v>
       </c>
-      <c r="BY81" s="48"/>
-      <c r="BZ81" s="43"/>
+      <c r="BY81" s="54"/>
+      <c r="BZ81" s="55"/>
       <c r="CC81" s="6"/>
     </row>
     <row r="82" spans="4:81" ht="12" customHeight="1">
       <c r="AV82" s="4"/>
       <c r="AW82" s="5"/>
-      <c r="BR82" s="44"/>
-      <c r="BS82" s="49"/>
-      <c r="BT82" s="49"/>
-      <c r="BU82" s="45"/>
-      <c r="BX82" s="44"/>
-      <c r="BY82" s="49"/>
-      <c r="BZ82" s="45"/>
+      <c r="BR82" s="56"/>
+      <c r="BS82" s="57"/>
+      <c r="BT82" s="57"/>
+      <c r="BU82" s="58"/>
+      <c r="BX82" s="56"/>
+      <c r="BY82" s="57"/>
+      <c r="BZ82" s="58"/>
       <c r="CC82" s="6"/>
     </row>
     <row r="83" spans="4:81" ht="12" customHeight="1">
@@ -8684,27 +8679,27 @@
     <row r="84" spans="4:81" ht="12" customHeight="1">
       <c r="AV84" s="4"/>
       <c r="AW84" s="5"/>
-      <c r="BR84" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="BS84" s="48"/>
-      <c r="BT84" s="43"/>
+      <c r="BR84" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS84" s="54"/>
+      <c r="BT84" s="55"/>
       <c r="BU84" s="5"/>
-      <c r="BX84" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="BY84" s="43"/>
+      <c r="BX84" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="BY84" s="55"/>
       <c r="CC84" s="6"/>
     </row>
     <row r="85" spans="4:81" ht="12" customHeight="1">
       <c r="AV85" s="4"/>
       <c r="AW85" s="5"/>
-      <c r="BR85" s="44"/>
-      <c r="BS85" s="49"/>
-      <c r="BT85" s="45"/>
+      <c r="BR85" s="56"/>
+      <c r="BS85" s="57"/>
+      <c r="BT85" s="58"/>
       <c r="BU85" s="5"/>
-      <c r="BX85" s="44"/>
-      <c r="BY85" s="45"/>
+      <c r="BX85" s="56"/>
+      <c r="BY85" s="58"/>
       <c r="CC85" s="6"/>
     </row>
     <row r="86" spans="4:81" ht="12" customHeight="1">
@@ -8775,16 +8770,16 @@
       <c r="BF89" s="2"/>
       <c r="BG89" s="2"/>
       <c r="BH89" s="2"/>
-      <c r="BI89" s="104" t="s">
-        <v>85</v>
-      </c>
-      <c r="BJ89" s="101"/>
-      <c r="BK89" s="101"/>
-      <c r="BL89" s="101"/>
-      <c r="BM89" s="101"/>
-      <c r="BN89" s="101"/>
-      <c r="BO89" s="101"/>
-      <c r="BP89" s="105"/>
+      <c r="BI89" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ89" s="45"/>
+      <c r="BK89" s="45"/>
+      <c r="BL89" s="45"/>
+      <c r="BM89" s="45"/>
+      <c r="BN89" s="45"/>
+      <c r="BO89" s="45"/>
+      <c r="BP89" s="46"/>
       <c r="BQ89" s="2"/>
       <c r="BR89" s="2"/>
       <c r="BS89" s="2"/>
@@ -8813,14 +8808,14 @@
       <c r="BF90" s="5"/>
       <c r="BG90" s="5"/>
       <c r="BH90" s="5"/>
-      <c r="BI90" s="106"/>
-      <c r="BJ90" s="102"/>
-      <c r="BK90" s="102"/>
-      <c r="BL90" s="102"/>
-      <c r="BM90" s="102"/>
-      <c r="BN90" s="102"/>
-      <c r="BO90" s="102"/>
-      <c r="BP90" s="107"/>
+      <c r="BI90" s="47"/>
+      <c r="BJ90" s="48"/>
+      <c r="BK90" s="48"/>
+      <c r="BL90" s="48"/>
+      <c r="BM90" s="48"/>
+      <c r="BN90" s="48"/>
+      <c r="BO90" s="48"/>
+      <c r="BP90" s="49"/>
       <c r="BQ90" s="5"/>
       <c r="BR90" s="5"/>
       <c r="BS90" s="5"/>
@@ -8849,14 +8844,14 @@
       <c r="BF91" s="5"/>
       <c r="BG91" s="5"/>
       <c r="BH91" s="5"/>
-      <c r="BI91" s="106"/>
-      <c r="BJ91" s="102"/>
-      <c r="BK91" s="102"/>
-      <c r="BL91" s="102"/>
-      <c r="BM91" s="102"/>
-      <c r="BN91" s="102"/>
-      <c r="BO91" s="102"/>
-      <c r="BP91" s="107"/>
+      <c r="BI91" s="47"/>
+      <c r="BJ91" s="48"/>
+      <c r="BK91" s="48"/>
+      <c r="BL91" s="48"/>
+      <c r="BM91" s="48"/>
+      <c r="BN91" s="48"/>
+      <c r="BO91" s="48"/>
+      <c r="BP91" s="49"/>
       <c r="BQ91" s="5"/>
       <c r="BR91" s="5"/>
       <c r="BS91" s="5"/>
@@ -8885,14 +8880,14 @@
       <c r="BF92" s="8"/>
       <c r="BG92" s="8"/>
       <c r="BH92" s="8"/>
-      <c r="BI92" s="108"/>
-      <c r="BJ92" s="103"/>
-      <c r="BK92" s="103"/>
-      <c r="BL92" s="103"/>
-      <c r="BM92" s="103"/>
-      <c r="BN92" s="103"/>
-      <c r="BO92" s="103"/>
-      <c r="BP92" s="109"/>
+      <c r="BI92" s="50"/>
+      <c r="BJ92" s="51"/>
+      <c r="BK92" s="51"/>
+      <c r="BL92" s="51"/>
+      <c r="BM92" s="51"/>
+      <c r="BN92" s="51"/>
+      <c r="BO92" s="51"/>
+      <c r="BP92" s="52"/>
       <c r="BQ92" s="8"/>
       <c r="BR92" s="8"/>
       <c r="BS92" s="8"/>
@@ -8909,6 +8904,29 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="Z75:AA76"/>
+    <mergeCell ref="AC75:AD76"/>
+    <mergeCell ref="L78:AD79"/>
+    <mergeCell ref="BR47:CC48"/>
+    <mergeCell ref="BS57:BT58"/>
+    <mergeCell ref="BU57:BV58"/>
+    <mergeCell ref="BW57:BX58"/>
+    <mergeCell ref="BR65:BX66"/>
+    <mergeCell ref="BR67:CC68"/>
+    <mergeCell ref="BR71:CC72"/>
+    <mergeCell ref="A1:H4"/>
+    <mergeCell ref="I1:R4"/>
+    <mergeCell ref="S1:U2"/>
+    <mergeCell ref="V1:AD2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AD4"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="AZ11:BC13"/>
     <mergeCell ref="BI89:BP92"/>
     <mergeCell ref="BR84:BT85"/>
     <mergeCell ref="BX84:BY85"/>
@@ -8924,29 +8942,6 @@
     <mergeCell ref="AL3:AN4"/>
     <mergeCell ref="BR81:BU82"/>
     <mergeCell ref="BX81:BZ82"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="AZ11:BC13"/>
-    <mergeCell ref="A1:H4"/>
-    <mergeCell ref="I1:R4"/>
-    <mergeCell ref="S1:U2"/>
-    <mergeCell ref="V1:AD2"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AD4"/>
-    <mergeCell ref="Z75:AA76"/>
-    <mergeCell ref="AC75:AD76"/>
-    <mergeCell ref="L78:AD79"/>
-    <mergeCell ref="BR47:CC48"/>
-    <mergeCell ref="BS57:BT58"/>
-    <mergeCell ref="BU57:BV58"/>
-    <mergeCell ref="BW57:BX58"/>
-    <mergeCell ref="BR65:BX66"/>
-    <mergeCell ref="BR67:CC68"/>
-    <mergeCell ref="BR71:CC72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
